--- a/second-order/1877/January1877.xlsx
+++ b/second-order/1877/January1877.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1877\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1877/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15027" documentId="13_ncr:1_{C8C645DD-8604-42B8-8280-BD4FFF216786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E782653-A816-46E6-92E3-3225A89E3C2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DAD67D-C392-8B4C-BCBF-796DB098A03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="5" activeTab="22" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="2260" yWindow="820" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="12" activeTab="18" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Glenalmond" sheetId="15" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,9 +723,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -763,7 +763,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -869,7 +869,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1011,7 +1011,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1025,12 +1025,12 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1067,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3206,7 +3206,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="U36" s="31"/>
     </row>
   </sheetData>
@@ -3230,12 +3230,12 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -3272,7 +3272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>67</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>67</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>67</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>67</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>67</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>67</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>67</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5432,12 +5432,12 @@
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -5474,7 +5474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>68</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>68</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -7634,12 +7634,12 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -7676,7 +7676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>70</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>70</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -9834,23 +9834,23 @@
   <dimension ref="A2:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="K26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="U37" sqref="U37"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -9887,7 +9887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>71</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -12026,7 +12026,7 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="36" spans="1:21 16384:16384">
+    <row r="36" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -12066,12 +12066,12 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -12108,7 +12108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>72</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>72</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>72</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -14266,23 +14266,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="M27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -14319,7 +14319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>73</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -16458,7 +16458,7 @@
         <v>3.9140000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -16497,12 +16497,12 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16539,7 +16539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>74</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>74</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>74</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -18699,12 +18699,12 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -18741,7 +18741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
@@ -19781,7 +19781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>75</v>
       </c>
@@ -19911,7 +19911,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
@@ -20171,7 +20171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>75</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>75</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -20756,7 +20756,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>75</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -20899,23 +20899,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="N27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="T36" sqref="T36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -20952,7 +20952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -21147,7 +21147,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -21212,7 +21212,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -21342,7 +21342,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -21472,7 +21472,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -21537,7 +21537,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -21927,7 +21927,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -22057,7 +22057,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
@@ -22187,7 +22187,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -22252,7 +22252,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -22382,7 +22382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -22447,7 +22447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -22512,7 +22512,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -22642,7 +22642,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
@@ -22707,7 +22707,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
@@ -22772,7 +22772,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -22837,7 +22837,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>76</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>76</v>
       </c>
@@ -23032,7 +23032,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -23091,7 +23091,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -23126,16 +23126,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3289CD-9D97-49EF-92C4-FFFF5740CCC3}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="N30" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -23172,7 +23172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -23237,7 +23237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -23302,7 +23302,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -23432,7 +23432,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>29.132000000000001</v>
       </c>
       <c r="F7" s="6">
-        <v>20.135999999999999</v>
+        <v>29.135999999999999</v>
       </c>
       <c r="G7" s="1">
         <v>48.3</v>
@@ -23497,7 +23497,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
@@ -23562,7 +23562,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -23627,7 +23627,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>78</v>
       </c>
@@ -23692,7 +23692,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -23757,7 +23757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>78</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>78</v>
       </c>
@@ -23887,7 +23887,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -23952,7 +23952,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -24082,7 +24082,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -24147,7 +24147,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -24212,7 +24212,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>78</v>
       </c>
@@ -24342,7 +24342,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
@@ -24407,7 +24407,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>78</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
@@ -24537,7 +24537,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
@@ -24602,7 +24602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
@@ -24667,7 +24667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
@@ -24732,7 +24732,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -24862,7 +24862,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -24927,7 +24927,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -24992,7 +24992,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>78</v>
       </c>
@@ -25057,7 +25057,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>78</v>
       </c>
@@ -25122,7 +25122,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -25187,7 +25187,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>78</v>
       </c>
@@ -25252,7 +25252,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -25332,9 +25332,9 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -25371,7 +25371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -25436,7 +25436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -25566,7 +25566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -25631,7 +25631,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -25761,7 +25761,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -25891,7 +25891,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -25956,7 +25956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -26151,7 +26151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -26216,7 +26216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -26281,7 +26281,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -26346,7 +26346,7 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -26411,7 +26411,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -26476,7 +26476,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -26541,7 +26541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -26606,7 +26606,7 @@
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -26671,7 +26671,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -26931,7 +26931,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -26996,7 +26996,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -27061,7 +27061,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -27126,7 +27126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -27191,7 +27191,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -27256,7 +27256,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
@@ -27321,7 +27321,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -27386,7 +27386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>45</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -27531,12 +27531,12 @@
       <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -27573,7 +27573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -27638,7 +27638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -27703,7 +27703,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -27768,7 +27768,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -27833,7 +27833,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -27963,7 +27963,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -28028,7 +28028,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -28093,7 +28093,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
@@ -28158,7 +28158,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -28223,7 +28223,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -28288,7 +28288,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -28353,7 +28353,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
@@ -28418,7 +28418,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -28483,7 +28483,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -28548,7 +28548,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -28613,7 +28613,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -28678,7 +28678,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -28743,7 +28743,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -28808,7 +28808,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -28873,7 +28873,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
@@ -29003,7 +29003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
@@ -29068,7 +29068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
@@ -29133,7 +29133,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
@@ -29198,7 +29198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -29263,7 +29263,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -29328,7 +29328,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
@@ -29393,7 +29393,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -29458,7 +29458,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>79</v>
       </c>
@@ -29523,7 +29523,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -29588,7 +29588,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>79</v>
       </c>
@@ -29653,7 +29653,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -29731,23 +29731,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="G27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="T36" sqref="T36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -29784,7 +29784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -29849,7 +29849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -29914,7 +29914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -29979,7 +29979,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
@@ -30044,7 +30044,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -30109,7 +30109,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>84</v>
       </c>
@@ -30174,7 +30174,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
@@ -30239,7 +30239,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -30304,7 +30304,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
@@ -30369,7 +30369,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
@@ -30434,7 +30434,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
@@ -30499,7 +30499,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>84</v>
       </c>
@@ -30564,7 +30564,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -30629,7 +30629,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>84</v>
       </c>
@@ -30694,7 +30694,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>84</v>
       </c>
@@ -30759,7 +30759,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>84</v>
       </c>
@@ -30889,7 +30889,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
@@ -30954,7 +30954,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -31019,7 +31019,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -31084,7 +31084,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -31149,7 +31149,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>84</v>
       </c>
@@ -31214,7 +31214,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
@@ -31279,7 +31279,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -31344,7 +31344,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>84</v>
       </c>
@@ -31474,7 +31474,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -31539,7 +31539,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
@@ -31604,7 +31604,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
@@ -31669,7 +31669,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>84</v>
       </c>
@@ -31734,7 +31734,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
@@ -31799,7 +31799,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>84</v>
       </c>
@@ -31864,7 +31864,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -31923,7 +31923,7 @@
         <v>5.9740000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -31962,9 +31962,9 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -32001,7 +32001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -32066,7 +32066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -32131,7 +32131,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -32261,7 +32261,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
@@ -32326,7 +32326,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -32391,7 +32391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
@@ -32456,7 +32456,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -32521,7 +32521,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>85</v>
       </c>
@@ -32586,7 +32586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
@@ -32651,7 +32651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -32781,7 +32781,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -32846,7 +32846,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -32911,7 +32911,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
@@ -32976,7 +32976,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
@@ -33041,7 +33041,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>85</v>
       </c>
@@ -33106,7 +33106,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>85</v>
       </c>
@@ -33171,7 +33171,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -33236,7 +33236,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -33301,7 +33301,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -33366,7 +33366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -33431,7 +33431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
@@ -33496,7 +33496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -33561,7 +33561,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -33626,7 +33626,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>85</v>
       </c>
@@ -33691,7 +33691,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>85</v>
       </c>
@@ -33756,7 +33756,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
@@ -33821,7 +33821,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
@@ -33886,7 +33886,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
@@ -33951,7 +33951,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>85</v>
       </c>
@@ -34016,7 +34016,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>85</v>
       </c>
@@ -34081,7 +34081,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -34158,24 +34158,24 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:XFD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C27" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -34212,7 +34212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -34277,7 +34277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -34342,7 +34342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>92</v>
       </c>
@@ -34407,7 +34407,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -34472,7 +34472,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>92</v>
       </c>
@@ -34537,7 +34537,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>92</v>
       </c>
@@ -34602,7 +34602,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -34667,7 +34667,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>92</v>
       </c>
@@ -34732,7 +34732,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>92</v>
       </c>
@@ -34797,7 +34797,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
@@ -34862,7 +34862,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>92</v>
       </c>
@@ -34927,7 +34927,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>92</v>
       </c>
@@ -34992,7 +34992,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -35057,7 +35057,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
@@ -35122,7 +35122,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -35187,7 +35187,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>92</v>
       </c>
@@ -35252,7 +35252,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -35317,7 +35317,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -35382,7 +35382,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>92</v>
       </c>
@@ -35447,7 +35447,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>92</v>
       </c>
@@ -35512,7 +35512,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
@@ -35577,7 +35577,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -35642,7 +35642,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -35707,7 +35707,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>92</v>
       </c>
@@ -35772,7 +35772,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
@@ -35837,7 +35837,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
@@ -35902,7 +35902,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>92</v>
       </c>
@@ -35967,7 +35967,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
@@ -36032,7 +36032,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>92</v>
       </c>
@@ -36097,7 +36097,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>92</v>
       </c>
@@ -36162,7 +36162,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
@@ -36227,7 +36227,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>92</v>
       </c>
@@ -36292,7 +36292,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -36351,7 +36351,7 @@
         <v>4.7389999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:21 16384:16384">
+    <row r="36" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -36389,23 +36389,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -36442,7 +36442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -36507,7 +36507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -36572,7 +36572,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -36637,7 +36637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -36702,7 +36702,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -36767,7 +36767,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
@@ -36832,7 +36832,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -36897,7 +36897,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -36962,7 +36962,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -37027,7 +37027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -37092,7 +37092,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -37157,7 +37157,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -37222,7 +37222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -37287,7 +37287,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -37352,7 +37352,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -37417,7 +37417,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -37482,7 +37482,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -37547,7 +37547,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -37612,7 +37612,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -37677,7 +37677,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -37742,7 +37742,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -37807,7 +37807,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -37872,7 +37872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -37937,7 +37937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -38002,7 +38002,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -38067,7 +38067,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
@@ -38132,7 +38132,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -38197,7 +38197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -38262,7 +38262,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -38327,7 +38327,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
@@ -38392,7 +38392,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -38457,7 +38457,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>48</v>
       </c>
@@ -38522,7 +38522,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -38581,7 +38581,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -38621,12 +38621,12 @@
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -38663,7 +38663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -38728,7 +38728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -38793,7 +38793,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -38858,7 +38858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -38923,7 +38923,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -38988,7 +38988,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -39053,7 +39053,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -39118,7 +39118,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -39183,7 +39183,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -39248,7 +39248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -39313,7 +39313,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -39378,7 +39378,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -39443,7 +39443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -39508,7 +39508,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -39573,7 +39573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -39638,7 +39638,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -39703,7 +39703,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -39768,7 +39768,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -39833,7 +39833,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -39898,7 +39898,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -39963,7 +39963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -40028,7 +40028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -40093,7 +40093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
@@ -40158,7 +40158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -40223,7 +40223,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -40288,7 +40288,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -40353,7 +40353,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -40418,7 +40418,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -40483,7 +40483,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -40548,7 +40548,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -40613,7 +40613,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
@@ -40678,7 +40678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>49</v>
       </c>
@@ -40743,7 +40743,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -40802,7 +40802,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="U36" s="31"/>
     </row>
   </sheetData>
@@ -40824,23 +40824,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -40877,7 +40877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -40942,7 +40942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -41007,7 +41007,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -41072,7 +41072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -41137,7 +41137,7 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -41202,7 +41202,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -41267,7 +41267,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -41332,7 +41332,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -41397,7 +41397,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -41462,7 +41462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -41527,7 +41527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -41592,7 +41592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -41657,7 +41657,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -41722,7 +41722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -41787,7 +41787,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -41852,7 +41852,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -41917,7 +41917,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -41982,7 +41982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -42047,7 +42047,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -42112,7 +42112,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -42177,7 +42177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -42242,7 +42242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -42307,7 +42307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
@@ -42372,7 +42372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -42437,7 +42437,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -42502,7 +42502,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -42567,7 +42567,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -42632,7 +42632,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -42697,7 +42697,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -42762,7 +42762,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -42827,7 +42827,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -42892,7 +42892,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -42957,7 +42957,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -43016,7 +43016,7 @@
         <v>3.9809999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -43053,23 +43053,23 @@
   <dimension ref="A2:Z36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="P29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -43106,7 +43106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -43171,7 +43171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -43236,7 +43236,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -43301,7 +43301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -43366,7 +43366,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -43431,7 +43431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -43496,7 +43496,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -43561,7 +43561,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -43629,7 +43629,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -43694,7 +43694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -43759,7 +43759,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -43824,7 +43824,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -43889,7 +43889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -43954,7 +43954,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -44019,7 +44019,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -44084,7 +44084,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -44149,7 +44149,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -44214,7 +44214,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
@@ -44279,7 +44279,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -44344,7 +44344,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -44409,7 +44409,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -44474,7 +44474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
@@ -44539,7 +44539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -44604,7 +44604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -44669,7 +44669,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -44734,7 +44734,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -44799,7 +44799,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
@@ -44864,7 +44864,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
@@ -44929,7 +44929,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
@@ -44994,7 +44994,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -45059,7 +45059,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
@@ -45124,7 +45124,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -45189,7 +45189,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -45248,7 +45248,7 @@
         <v>7.8230000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -45287,12 +45287,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -45329,7 +45329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -45394,7 +45394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
@@ -45459,7 +45459,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -45524,7 +45524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -45589,7 +45589,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -45654,7 +45654,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -45719,7 +45719,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
@@ -45784,7 +45784,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -45849,7 +45849,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -45914,7 +45914,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -45979,7 +45979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -46044,7 +46044,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
@@ -46109,7 +46109,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -46174,7 +46174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -46239,7 +46239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -46304,7 +46304,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
@@ -46369,7 +46369,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -46434,7 +46434,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>53</v>
       </c>
@@ -46499,7 +46499,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -46564,7 +46564,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -46629,7 +46629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -46694,7 +46694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -46759,7 +46759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -46824,7 +46824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -46889,7 +46889,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -46954,7 +46954,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -47019,7 +47019,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -47084,7 +47084,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -47149,7 +47149,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
@@ -47214,7 +47214,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
@@ -47279,7 +47279,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
@@ -47344,7 +47344,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
@@ -47409,7 +47409,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -47489,12 +47489,12 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -47531,7 +47531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -47596,7 +47596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -47661,7 +47661,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -47726,7 +47726,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -47791,7 +47791,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -47856,7 +47856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -47921,7 +47921,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -47986,7 +47986,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -48051,7 +48051,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -48116,7 +48116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -48181,7 +48181,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -48246,7 +48246,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -48311,7 +48311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -48376,7 +48376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -48441,7 +48441,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -48506,7 +48506,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
@@ -48571,7 +48571,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -48636,7 +48636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -48701,7 +48701,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -48766,7 +48766,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -48831,7 +48831,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
@@ -48896,7 +48896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -48961,7 +48961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -49026,7 +49026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -49091,7 +49091,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -49156,7 +49156,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -49221,7 +49221,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -49286,7 +49286,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
@@ -49351,7 +49351,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -49416,7 +49416,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
@@ -49481,7 +49481,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
@@ -49546,7 +49546,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>54</v>
       </c>
@@ -49611,7 +49611,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -49689,23 +49689,23 @@
   <dimension ref="A2:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="R36" sqref="R36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -49742,7 +49742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -49807,7 +49807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -49872,7 +49872,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -49937,7 +49937,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -50002,7 +50002,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -50067,7 +50067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -50132,7 +50132,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -50197,7 +50197,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -50262,7 +50262,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -50327,7 +50327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -50392,7 +50392,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -50457,7 +50457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -50522,7 +50522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -50587,7 +50587,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -50652,7 +50652,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
@@ -50717,7 +50717,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -50782,7 +50782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -50847,7 +50847,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -50912,7 +50912,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -50977,7 +50977,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -51042,7 +51042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -51107,7 +51107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -51172,7 +51172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
@@ -51237,7 +51237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>55</v>
       </c>
@@ -51302,7 +51302,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -51367,7 +51367,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
@@ -51432,7 +51432,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
@@ -51497,7 +51497,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
@@ -51562,7 +51562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -51627,7 +51627,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -51692,7 +51692,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
@@ -51757,7 +51757,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>55</v>
       </c>
@@ -51822,7 +51822,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -51881,7 +51881,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="36" spans="1:21 16384:16384">
+    <row r="36" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -51914,15 +51914,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -52223,7 +52214,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-33274</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-33274</Url>
+      <Description>H7Q62YT2XCZT-908671883-33274</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -52273,38 +52293,52 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-33274</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-33274</Url>
-      <Description>H7Q62YT2XCZT-908671883-33274</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E6475-6B33-447E-A1E8-8A91217D4391}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50E6475-6B33-447E-A1E8-8A91217D4391}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70FFBFFA-04A0-410E-8E22-8FFB24F005E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70FFBFFA-04A0-410E-8E22-8FFB24F005E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>